--- a/results/benchmarking/TVM-0.14.dev264-docker-26.12.2023.xlsx
+++ b/results/benchmarking/TVM-0.14.dev264-docker-26.12.2023.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dl-benchmark-vasilev\results\benchmarking\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,15 +51,6 @@
     <t>TVM</t>
   </si>
   <si>
-    <t>CPU family: x86_64, GPU: Undefined, RAM size: 65702408 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-debian-bullseye-sid</t>
-  </si>
-  <si>
-    <t>CPU family: x86_64, GPU: Undefined, RAM size: 526950192 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-debian-bullseye-sid</t>
-  </si>
-  <si>
-    <t>CPU family: x86_64, GPU: Undefined, RAM size: 32731152 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-debian-bullseye-sid</t>
-  </si>
-  <si>
     <t>classification</t>
   </si>
   <si>
@@ -122,13 +118,22 @@
   </si>
   <si>
     <t>[8, 3, 227, 227]</t>
+  </si>
+  <si>
+    <t>CPU: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz, CPU family: x86_64,, GPU: Undefined, RAM size: 32731152 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-debian-bullseye-sid</t>
+  </si>
+  <si>
+    <t>CPU: Intel(R) Xeon(R) Gold 6138 CPU @ 2.00GHz, CPU family: x86_64, GPU: Undefined, RAM size: 526950192 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-debian-bullseye-sid</t>
+  </si>
+  <si>
+    <t>CPU: Intel(R) Core(TM) i7-8700 CPU @ 3.20GHz, CPU family: x86_64, RAM size: 65702408 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-debian-bullseye-sid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +198,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -204,22 +218,145 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="40">
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
         <top style="thick">
           <color auto="1"/>
         </top>
@@ -232,15 +369,213 @@
     </dxf>
     <dxf>
       <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
@@ -250,6 +585,42 @@
     </dxf>
     <dxf>
       <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -271,27 +642,189 @@
         <left style="thick">
           <color auto="1"/>
         </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thick">
           <color auto="1"/>
         </top>
@@ -313,6 +846,42 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
@@ -322,70 +891,52 @@
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
           <color auto="1"/>
         </right>
         <top style="thick">
           <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
           <color auto="1"/>
         </bottom>
         <vertical/>
@@ -394,13 +945,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,9 +997,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,9 +1031,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,9 +1066,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -681,55 +1242,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
@@ -740,12 +1301,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -756,12 +1317,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,12 +1333,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,12 +1349,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,519 +1365,514 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60.322000000000003</v>
+      </c>
+      <c r="G7" s="3">
+        <v>60.439</v>
+      </c>
+      <c r="H7" s="3">
+        <v>21.186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>51.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>77.53</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17.661000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45.883000000000003</v>
+      </c>
+      <c r="G9" s="3">
+        <v>90.688999999999993</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17.349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42.540999999999997</v>
+      </c>
+      <c r="G10" s="3">
+        <v>97.090999999999994</v>
+      </c>
+      <c r="H10" s="3">
+        <v>17.195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>19.728999999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>30.225999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.0519999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14.929</v>
+      </c>
+      <c r="G12" s="3">
+        <v>28.169</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4.7050000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14.026999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>35.664999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.4489999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12.804</v>
+      </c>
+      <c r="G14" s="3">
+        <v>42.499000000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4.4039999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>60.322</v>
-      </c>
-      <c r="G7" s="4">
-        <v>60.439</v>
-      </c>
-      <c r="H7" s="4">
-        <v>21.186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="F15" s="3">
+        <v>30.963000000000001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>38.817</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10.756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
-        <v>51.2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>77.53</v>
-      </c>
-      <c r="H8" s="4">
-        <v>17.661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="F16" s="3">
+        <v>24.988</v>
+      </c>
+      <c r="G16" s="3">
+        <v>39.481999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8.2050000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
-        <v>45.883</v>
-      </c>
-      <c r="G9" s="4">
-        <v>90.68899999999999</v>
-      </c>
-      <c r="H9" s="4">
-        <v>17.349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="F17" s="3">
+        <v>24.88</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43.521999999999998</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8.1820000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>24.619</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46.209000000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8.1820000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>11.122</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.569</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10.584</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="G21" s="3">
+        <v>11.538</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>12.329000000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>14.622999999999999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>29.591999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.6369999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10.791</v>
+      </c>
+      <c r="G24" s="3">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10.225</v>
+      </c>
+      <c r="G25" s="3">
+        <v>35.542999999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.1859999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="4">
-        <v>42.541</v>
-      </c>
-      <c r="G10" s="4">
-        <v>97.09099999999999</v>
-      </c>
-      <c r="H10" s="4">
-        <v>17.195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="F26" s="3">
+        <v>9.6709999999999994</v>
+      </c>
+      <c r="G26" s="3">
+        <v>37.76</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.1890000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
-        <v>19.729</v>
-      </c>
-      <c r="G11" s="4">
-        <v>30.226</v>
-      </c>
-      <c r="H11" s="4">
-        <v>6.052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="F27" s="3">
+        <v>133.69499999999999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>214.86699999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43.372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="4">
-        <v>14.929</v>
-      </c>
-      <c r="G12" s="4">
-        <v>28.169</v>
-      </c>
-      <c r="H12" s="4">
-        <v>4.705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="F28" s="3">
+        <v>105.322</v>
+      </c>
+      <c r="G28" s="3">
+        <v>210.80799999999999</v>
+      </c>
+      <c r="H28" s="3">
+        <v>32.685000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="4">
-        <v>14.027</v>
-      </c>
-      <c r="G13" s="4">
-        <v>35.665</v>
-      </c>
-      <c r="H13" s="4">
-        <v>4.449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="F29" s="3">
+        <v>102.392</v>
+      </c>
+      <c r="G29" s="3">
+        <v>261.08600000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>32.116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2">
         <v>8</v>
       </c>
-      <c r="F14" s="4">
-        <v>12.804</v>
-      </c>
-      <c r="G14" s="4">
-        <v>42.499</v>
-      </c>
-      <c r="H14" s="4">
-        <v>4.404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>30.963</v>
-      </c>
-      <c r="G15" s="4">
-        <v>38.817</v>
-      </c>
-      <c r="H15" s="4">
-        <v>10.756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>24.988</v>
-      </c>
-      <c r="G16" s="4">
-        <v>39.482</v>
-      </c>
-      <c r="H16" s="4">
-        <v>8.205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
-        <v>24.88</v>
-      </c>
-      <c r="G17" s="4">
-        <v>43.522</v>
-      </c>
-      <c r="H17" s="4">
-        <v>8.182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8</v>
-      </c>
-      <c r="F18" s="4">
-        <v>24.619</v>
-      </c>
-      <c r="G18" s="4">
-        <v>46.209</v>
-      </c>
-      <c r="H18" s="4">
-        <v>8.182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4.48</v>
-      </c>
-      <c r="G19" s="4">
-        <v>11.122</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3.569</v>
-      </c>
-      <c r="G20" s="4">
-        <v>10.584</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3.515</v>
-      </c>
-      <c r="G21" s="4">
-        <v>11.538</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1.025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3.372</v>
-      </c>
-      <c r="G22" s="4">
-        <v>12.329</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1.024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>14.623</v>
-      </c>
-      <c r="G23" s="4">
-        <v>29.592</v>
-      </c>
-      <c r="H23" s="4">
-        <v>4.637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>10.791</v>
-      </c>
-      <c r="G24" s="4">
-        <v>30.723</v>
-      </c>
-      <c r="H24" s="4">
-        <v>3.169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" s="4">
-        <v>10.225</v>
-      </c>
-      <c r="G25" s="4">
-        <v>35.543</v>
-      </c>
-      <c r="H25" s="4">
-        <v>3.186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4">
-        <v>9.670999999999999</v>
-      </c>
-      <c r="G26" s="4">
-        <v>37.76</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3.189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>133.695</v>
-      </c>
-      <c r="G27" s="4">
-        <v>214.867</v>
-      </c>
-      <c r="H27" s="4">
-        <v>43.372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>105.322</v>
-      </c>
-      <c r="G28" s="4">
-        <v>210.808</v>
-      </c>
-      <c r="H28" s="4">
-        <v>32.685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4">
-        <v>102.392</v>
-      </c>
-      <c r="G29" s="4">
-        <v>261.086</v>
-      </c>
-      <c r="H29" s="4">
-        <v>32.116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="3">
-        <v>8</v>
-      </c>
-      <c r="F30" s="4">
-        <v>96.032</v>
-      </c>
-      <c r="G30" s="4">
-        <v>299.426</v>
-      </c>
-      <c r="H30" s="4">
-        <v>31.702</v>
+      <c r="F30" s="3">
+        <v>96.031999999999996</v>
+      </c>
+      <c r="G30" s="3">
+        <v>299.42599999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>31.702000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="D1:D6"/>
-    <mergeCell ref="E1:E6"/>
     <mergeCell ref="A7:A30"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -1330,192 +1886,197 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D1:D6"/>
+    <mergeCell ref="E1:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="14">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="6">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="13">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A29">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="12">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="10">
       <formula>LEN(TRIM(B30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="2">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="9">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="7">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="3">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="16">
       <formula>LEN(TRIM(E30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="8">
       <formula>LEN(TRIM(E6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="15">
       <formula>LEN(TRIM(E7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E29">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="11">
       <formula>LEN(TRIM(E8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="19">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="17">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="18">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="24">
       <formula>LEN(TRIM(F30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
       <formula>LEN(TRIM(F6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="23">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F29">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="21">
       <formula>LEN(TRIM(F8))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="22">
       <formula>LEN(TRIM(F8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="27">
       <formula>LEN(TRIM(G1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="25">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="26">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="32">
       <formula>LEN(TRIM(G30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="28">
       <formula>LEN(TRIM(G6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="31">
       <formula>LEN(TRIM(G7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G29">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="29">
       <formula>LEN(TRIM(G8))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="30">
       <formula>LEN(TRIM(G8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="35">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="33">
       <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="34">
       <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="40">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="40">
       <formula>LEN(TRIM(H30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="36">
       <formula>LEN(TRIM(H6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="39">
       <formula>LEN(TRIM(H7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H29">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="37">
       <formula>LEN(TRIM(H8))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="38">
       <formula>LEN(TRIM(H8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
